--- a/dataTest/for demo/QualificationTest2.xlsx
+++ b/dataTest/for demo/QualificationTest2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhatcao/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5323E783-4A8E-1840-99D0-208D3C18567B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D099FD35-CF1C-1145-B610-38F68F37B4E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{C3250AB7-4379-A74E-939D-2A4D27508A10}"/>
+    <workbookView xWindow="14220" yWindow="460" windowWidth="16680" windowHeight="20540" xr2:uid="{C3250AB7-4379-A74E-939D-2A4D27508A10}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="00000000"/>
+    <numFmt numFmtId="164" formatCode="00000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -82,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -118,11 +118,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -131,14 +146,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,14 +471,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC28923C-8F4D-4B4B-886C-58EEBD4456FA}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E655B963-3ADA-B349-A403-9A37AA55B178}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -559,14 +580,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="92" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
